--- a/data/trans_bre/POLIPATOLOGIA_DISC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Edad-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,11</t>
+          <t>0,75; 4,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,4</t>
+          <t>0,99; 5,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 10,19</t>
+          <t>-0,54; 9,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,93; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 1472,02</t>
+          <t>20,8; 1295,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 631,96</t>
+          <t>-36,72; 770,9</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,47</t>
+          <t>0,32; 4,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,52</t>
+          <t>0,54; 4,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,24</t>
+          <t>1,63; 8,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 298,18</t>
+          <t>5,13; 360,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 469,58</t>
+          <t>8,99; 465,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,57; 405,28</t>
+          <t>20,85; 382,71</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,63</t>
+          <t>4,15; 9,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 7,16</t>
+          <t>1,98; 6,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 8,63</t>
+          <t>2,03; 8,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,7; 345,83</t>
+          <t>74,05; 353,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,89; 297,71</t>
+          <t>38,02; 274,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,73; 203,47</t>
+          <t>23,72; 198,77</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,3</t>
+          <t>3,17; 11,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,34</t>
+          <t>2,93; 10,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,32</t>
+          <t>5,03; 13,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,16; 143,24</t>
+          <t>26,61; 146,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,99; 131,48</t>
+          <t>24,17; 136,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,7; 145,83</t>
+          <t>35,72; 137,72</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 19,8</t>
+          <t>7,67; 19,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 20,49</t>
+          <t>9,96; 20,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 14,83</t>
+          <t>6,29; 14,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,99; 143,44</t>
+          <t>38,74; 141,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,74; 170,15</t>
+          <t>56,03; 171,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,31; 94,95</t>
+          <t>30,11; 95,21</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 20,92</t>
+          <t>9,35; 20,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,92; 25,0</t>
+          <t>15,57; 25,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 21,85</t>
+          <t>3,36; 21,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,46; 55,12</t>
+          <t>21,13; 53,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,98; 113,32</t>
+          <t>57,33; 113,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 97,04</t>
+          <t>15,62; 95,65</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,93; 11,6</t>
+          <t>8,12; 11,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,0</t>
+          <t>8,42; 11,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,14</t>
+          <t>8,01; 12,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,17; 106,61</t>
+          <t>64,17; 106,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,27; 138,34</t>
+          <t>83,12; 137,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61,19; 106,28</t>
+          <t>61,23; 106,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA_DISC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,09</t>
+          <t>0,77; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,62</t>
+          <t>0,98; 5,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,93; —</t>
+          <t>26,31; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,8; 1295,54</t>
+          <t>18,3; 1567,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,44</t>
+          <t>0,36; 4,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,65</t>
+          <t>0,58; 4,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 360,85</t>
+          <t>6,33; 310,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,99; 465,39</t>
+          <t>17,11; 523,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,76</t>
+          <t>3,8; 9,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,84</t>
+          <t>2,28; 7,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,05; 353,4</t>
+          <t>72,56; 352,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,02; 274,95</t>
+          <t>47,03; 297,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 11,39</t>
+          <t>3,21; 11,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 10,48</t>
+          <t>3,12; 10,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 146,53</t>
+          <t>25,51; 140,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,17; 136,06</t>
+          <t>27,26; 136,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 19,89</t>
+          <t>8,11; 19,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,96; 20,5</t>
+          <t>9,46; 20,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,74; 141,11</t>
+          <t>40,91; 142,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>56,03; 171,05</t>
+          <t>54,75; 167,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,35; 20,39</t>
+          <t>8,54; 20,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,57; 25,44</t>
+          <t>15,16; 25,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,13; 53,57</t>
+          <t>19,27; 55,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>57,33; 113,96</t>
+          <t>54,53; 115,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,73</t>
+          <t>7,95; 11,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,96</t>
+          <t>8,63; 12,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,17; 106,39</t>
+          <t>61,81; 105,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>83,12; 137,77</t>
+          <t>86,46; 141,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/POLIPATOLOGIA_DISC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,05</t>
+          <t>0,78; 4,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,63</t>
+          <t>0,89; 5,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 9,82</t>
+          <t>-0,66; 10,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,31; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 1567,54</t>
+          <t>2,68; 1472,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,72; 770,9</t>
+          <t>-38,42; 631,96</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,38</t>
+          <t>0,43; 4,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,69</t>
+          <t>0,51; 4,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 8,13</t>
+          <t>1,36; 8,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 310,86</t>
+          <t>4,28; 298,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 523,17</t>
+          <t>11,81; 469,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,85; 382,71</t>
+          <t>21,57; 405,28</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,61</t>
+          <t>3,51; 9,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,09</t>
+          <t>2,03; 7,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 8,55</t>
+          <t>2,26; 8,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,56; 352,64</t>
+          <t>62,7; 345,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,03; 297,18</t>
+          <t>41,89; 297,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,72; 198,77</t>
+          <t>29,73; 203,47</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,15</t>
+          <t>3,27; 11,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 10,59</t>
+          <t>3,04; 10,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 13,08</t>
+          <t>4,87; 13,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 140,11</t>
+          <t>28,16; 143,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,26; 136,24</t>
+          <t>25,99; 131,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 137,72</t>
+          <t>34,7; 145,83</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 19,43</t>
+          <t>7,98; 19,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,46; 20,35</t>
+          <t>9,0; 20,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 14,66</t>
+          <t>6,42; 14,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,91; 142,92</t>
+          <t>41,99; 143,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,75; 167,86</t>
+          <t>52,74; 170,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,11; 95,21</t>
+          <t>31,31; 94,95</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,54; 20,98</t>
+          <t>9,3; 20,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,16; 25,68</t>
+          <t>14,92; 25,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 21,75</t>
+          <t>3,29; 21,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,27; 55,34</t>
+          <t>20,46; 55,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,53; 115,77</t>
+          <t>54,98; 113,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,62; 95,65</t>
+          <t>15,84; 97,04</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,62</t>
+          <t>7,93; 11,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,13</t>
+          <t>8,57; 12,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,01; 12,4</t>
+          <t>8,03; 12,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,81; 105,55</t>
+          <t>63,17; 106,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,46; 141,74</t>
+          <t>86,27; 138,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61,23; 106,94</t>
+          <t>61,19; 106,28</t>
         </is>
       </c>
     </row>
